--- a/data/trans_orig/P6514-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B807D81A-590E-4A0E-BB24-DFF58D0FB6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79407545-0783-45CD-8C8C-A321B6141B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F93EAB72-4DA7-4FF4-B2DE-97FAC11D76D5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4276025-23F0-4C70-9024-B8B30C1C96C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>24,46%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>35,08%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,931 +104,922 @@
     <t>36,34%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>12,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1443,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A663CB-A404-439D-AA60-BEC202708D00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB3BE32-D587-4F14-BBF8-D69232B63BC0}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1705,13 +1696,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -1720,13 +1711,13 @@
         <v>15391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1735,13 +1726,13 @@
         <v>6396</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -1750,13 +1741,13 @@
         <v>21787</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,13 +1762,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -1786,13 +1777,13 @@
         <v>111984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>257</v>
@@ -1801,18 +1792,18 @@
         <v>277383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1824,13 +1815,13 @@
         <v>82306</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -1839,13 +1830,13 @@
         <v>58412</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>129</v>
@@ -1854,13 +1845,13 @@
         <v>140718</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1866,13 @@
         <v>102590</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -1890,13 +1881,13 @@
         <v>37675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -1905,13 +1896,13 @@
         <v>140265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1917,13 @@
         <v>66196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -1941,13 +1932,13 @@
         <v>27242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -1956,19 +1947,19 @@
         <v>93438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>17</v>
@@ -1977,13 +1968,13 @@
         <v>19389</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1992,13 +1983,13 @@
         <v>7503</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -2007,13 +1998,13 @@
         <v>26892</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2019,13 @@
         <v>270481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -2043,13 +2034,13 @@
         <v>130831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -2058,18 +2049,18 @@
         <v>401312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2081,13 +2072,13 @@
         <v>34615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -2096,13 +2087,13 @@
         <v>27589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2111,13 +2102,13 @@
         <v>62204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2123,13 @@
         <v>64338</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -2147,13 +2138,13 @@
         <v>51300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>108</v>
@@ -2162,13 +2153,13 @@
         <v>115638</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2174,13 @@
         <v>44631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -2198,13 +2189,13 @@
         <v>13653</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -2213,19 +2204,19 @@
         <v>58284</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>31</v>
@@ -2234,13 +2225,13 @@
         <v>32120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2249,13 +2240,13 @@
         <v>2024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -2264,13 +2255,13 @@
         <v>34144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2276,13 @@
         <v>175703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2300,13 +2291,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2315,18 +2306,18 @@
         <v>270270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2338,13 +2329,13 @@
         <v>61040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2353,13 +2344,13 @@
         <v>41837</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -2368,13 +2359,13 @@
         <v>102877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2380,13 @@
         <v>97833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -2404,13 +2395,13 @@
         <v>51449</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>149</v>
@@ -2419,13 +2410,13 @@
         <v>149282</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2431,13 @@
         <v>39140</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -2455,13 +2446,13 @@
         <v>31255</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -2470,19 +2461,19 @@
         <v>70395</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>25</v>
@@ -2491,13 +2482,13 @@
         <v>24636</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2506,13 +2497,13 @@
         <v>11544</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -2521,13 +2512,13 @@
         <v>36180</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2533,13 @@
         <v>222649</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2557,13 +2548,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -2572,18 +2563,18 @@
         <v>358734</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2595,13 +2586,13 @@
         <v>52729</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -2610,13 +2601,13 @@
         <v>37772</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -2625,13 +2616,13 @@
         <v>90501</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2637,13 @@
         <v>26842</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2661,13 +2652,13 @@
         <v>7631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -2676,13 +2667,13 @@
         <v>34473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2688,13 @@
         <v>20036</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2712,13 +2703,13 @@
         <v>3013</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2727,19 +2718,19 @@
         <v>23049</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>13</v>
@@ -2748,13 +2739,13 @@
         <v>12570</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2763,13 +2754,13 @@
         <v>2010</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -2778,13 +2769,13 @@
         <v>14580</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2790,13 @@
         <v>112177</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2814,13 +2805,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -2829,18 +2820,18 @@
         <v>162603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2852,13 +2843,13 @@
         <v>28813</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -2867,13 +2858,13 @@
         <v>15136</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -2882,13 +2873,13 @@
         <v>43949</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2894,13 @@
         <v>61422</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -2918,13 +2909,13 @@
         <v>50075</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -2933,13 +2924,13 @@
         <v>111497</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2945,13 @@
         <v>49901</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -2969,13 +2960,13 @@
         <v>13588</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -2984,19 +2975,19 @@
         <v>63490</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>14</v>
@@ -3005,13 +2996,13 @@
         <v>14861</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3020,13 +3011,13 @@
         <v>2049</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -3035,13 +3026,13 @@
         <v>16911</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3047,13 @@
         <v>154998</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>78</v>
@@ -3071,13 +3062,13 @@
         <v>80849</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>227</v>
@@ -3086,18 +3077,18 @@
         <v>235847</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3100,13 @@
         <v>67864</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>50</v>
@@ -3124,13 +3115,13 @@
         <v>53237</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="M34" s="7">
         <v>114</v>
@@ -3139,13 +3130,13 @@
         <v>121101</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3151,13 @@
         <v>131466</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>72</v>
@@ -3175,13 +3166,13 @@
         <v>79673</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>197</v>
@@ -3190,13 +3181,13 @@
         <v>211139</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,10 +3202,10 @@
         <v>78326</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>247</v>
@@ -3229,7 +3220,7 @@
         <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>249</v>
@@ -3241,19 +3232,19 @@
         <v>114762</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>50</v>
@@ -3262,7 +3253,7 @@
         <v>55437</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>253</v>
@@ -3277,7 +3268,7 @@
         <v>10298</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>255</v>
@@ -3313,13 +3304,13 @@
         <v>333092</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -3328,13 +3319,13 @@
         <v>179645</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>481</v>
@@ -3343,13 +3334,13 @@
         <v>512737</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,7 +3444,7 @@
         <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3459,13 @@
         <v>99184</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -3483,13 +3474,13 @@
         <v>36408</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="L41" s="7" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="M41" s="7">
         <v>131</v>
@@ -3498,19 +3489,19 @@
         <v>135591</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>72</v>
@@ -3519,13 +3510,13 @@
         <v>74122</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -3534,13 +3525,13 @@
         <v>28469</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M42" s="7">
         <v>98</v>
@@ -3549,13 +3540,13 @@
         <v>102591</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3561,13 @@
         <v>461425</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>226</v>
@@ -3585,13 +3576,13 @@
         <v>237029</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>675</v>
@@ -3600,13 +3591,13 @@
         <v>698455</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3614,13 @@
         <v>556223</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>381</v>
@@ -3638,13 +3629,13 @@
         <v>400208</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M44" s="7">
         <v>911</v>
@@ -3653,13 +3644,13 @@
         <v>956431</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3665,13 @@
         <v>644307</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>307</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>344</v>
@@ -3689,13 +3680,13 @@
         <v>358408</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M45" s="7">
         <v>966</v>
@@ -3704,13 +3695,13 @@
         <v>1002715</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3716,13 @@
         <v>446868</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H46" s="7">
         <v>184</v>
@@ -3740,13 +3731,13 @@
         <v>192506</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="M46" s="7">
         <v>613</v>
@@ -3755,19 +3746,19 @@
         <v>639374</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>234</v>
@@ -3776,13 +3767,13 @@
         <v>248527</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="H47" s="7">
         <v>68</v>
@@ -3791,13 +3782,13 @@
         <v>70294</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>302</v>
@@ -3806,13 +3797,13 @@
         <v>318821</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3818,13 @@
         <v>1895924</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>977</v>
@@ -3842,13 +3833,13 @@
         <v>1021416</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>2792</v>
@@ -3857,18 +3848,18 @@
         <v>2917341</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79407545-0783-45CD-8C8C-A321B6141B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9C237E-F294-4A0D-9964-EE29E47C2D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4276025-23F0-4C70-9024-B8B30C1C96C4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4ED52122-6709-4BFE-85C6-DBC94B63662C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,952 +74,958 @@
     <t>24,46%</t>
   </si>
   <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>29,9%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>28,54%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,58%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1434,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB3BE32-D587-4F14-BBF8-D69232B63BC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64024949-8DBB-4352-BD75-F83D4E02598D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2225,13 +2231,13 @@
         <v>32120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2240,13 +2246,13 @@
         <v>2024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -2255,13 +2261,13 @@
         <v>34144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2323,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2329,13 +2335,13 @@
         <v>61040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2344,13 +2350,13 @@
         <v>41837</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -2359,13 +2365,13 @@
         <v>102877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2386,13 @@
         <v>97833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -2395,10 +2401,10 @@
         <v>51449</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>139</v>
@@ -2452,7 +2458,7 @@
         <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -2461,13 +2467,13 @@
         <v>70395</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2488,13 @@
         <v>24636</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2497,10 +2503,10 @@
         <v>11544</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>156</v>
@@ -2688,13 +2694,13 @@
         <v>20036</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2703,13 +2709,13 @@
         <v>3013</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2718,13 +2724,13 @@
         <v>23049</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2745,13 @@
         <v>12570</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2754,13 +2760,13 @@
         <v>2010</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -2769,13 +2775,13 @@
         <v>14580</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,10 +2882,10 @@
         <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,7 +3020,7 @@
         <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>226</v>
@@ -3032,7 +3038,7 @@
         <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,7 +3094,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3100,13 +3106,13 @@
         <v>67864</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>50</v>
@@ -3115,13 +3121,13 @@
         <v>53237</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M34" s="7">
         <v>114</v>
@@ -3184,10 +3190,10 @@
         <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3208,13 @@
         <v>78326</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -3217,13 +3223,13 @@
         <v>36436</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>109</v>
@@ -3232,13 +3238,13 @@
         <v>114762</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3259,13 @@
         <v>55437</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -3271,10 +3277,10 @@
         <v>82</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>61</v>
@@ -3283,13 +3289,13 @@
         <v>65736</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,7 +3351,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3357,13 +3363,13 @@
         <v>188408</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H39" s="7">
         <v>120</v>
@@ -3372,13 +3378,13 @@
         <v>126946</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M39" s="7">
         <v>303</v>
@@ -3387,13 +3393,13 @@
         <v>315354</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3414,13 @@
         <v>99712</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -3423,13 +3429,13 @@
         <v>45206</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>143</v>
@@ -3438,13 +3444,13 @@
         <v>144918</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3465,13 @@
         <v>99184</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -3474,13 +3480,13 @@
         <v>36408</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>131</v>
@@ -3489,13 +3495,13 @@
         <v>135591</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3516,13 @@
         <v>74122</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -3525,13 +3531,13 @@
         <v>28469</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>291</v>
+        <v>114</v>
       </c>
       <c r="M42" s="7">
         <v>98</v>
@@ -3540,13 +3546,13 @@
         <v>102591</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3620,13 @@
         <v>556223</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H44" s="7">
         <v>381</v>
@@ -3629,13 +3635,13 @@
         <v>400208</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M44" s="7">
         <v>911</v>
@@ -3644,13 +3650,13 @@
         <v>956431</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3671,13 @@
         <v>644307</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="H45" s="7">
         <v>344</v>
@@ -3680,13 +3686,13 @@
         <v>358408</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M45" s="7">
         <v>966</v>
@@ -3695,13 +3701,13 @@
         <v>1002715</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3722,13 @@
         <v>446868</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H46" s="7">
         <v>184</v>
@@ -3731,13 +3737,13 @@
         <v>192506</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>316</v>
+        <v>113</v>
       </c>
       <c r="M46" s="7">
         <v>613</v>
@@ -3746,13 +3752,13 @@
         <v>639374</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3773,13 @@
         <v>248527</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>68</v>
@@ -3782,13 +3788,13 @@
         <v>70294</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>302</v>
@@ -3797,13 +3803,13 @@
         <v>318821</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3865,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9C237E-F294-4A0D-9964-EE29E47C2D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{702D231B-18EF-4723-B849-F171FB0ABB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4ED52122-6709-4BFE-85C6-DBC94B63662C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9DCFCD6-E2BC-468B-9E8E-FE44D27A3149}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,553 +74,547 @@
     <t>24,46%</t>
   </si>
   <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>15,56%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>12,44%</t>
+    <t>12,27%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -629,97 +623,100 @@
     <t>18,59%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>14,09%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
   </si>
   <si>
     <t>61,94%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
   </si>
   <si>
     <t>32,19%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
+    <t>40,57%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -728,304 +725,310 @@
     <t>20,37%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>29,63%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>39,47%</t>
   </si>
   <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>44,35%</t>
   </si>
   <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
   </si>
   <si>
     <t>41,18%</t>
   </si>
   <si>
-    <t>36,64%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>45,79%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
     <t>53,56%</t>
   </si>
   <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>17,99%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
+    <t>8,18%</t>
+  </si>
+  <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>31,58%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>33,98%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
   </si>
   <si>
     <t>34,37%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,57%</t>
+    <t>16,46%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1440,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64024949-8DBB-4352-BD75-F83D4E02598D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CEA83B-9068-42E0-9FA3-527501291C0F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1702,13 +1705,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -1717,13 +1720,13 @@
         <v>15391</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1732,13 +1735,13 @@
         <v>6396</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -1747,13 +1750,13 @@
         <v>21787</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1771,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -1783,13 +1786,13 @@
         <v>111984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>257</v>
@@ -1798,18 +1801,18 @@
         <v>277383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1821,13 +1824,13 @@
         <v>82306</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -1836,13 +1839,13 @@
         <v>58412</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>129</v>
@@ -1851,13 +1854,13 @@
         <v>140718</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,13 +1875,13 @@
         <v>102590</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -1887,13 +1890,13 @@
         <v>37675</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -1902,13 +1905,13 @@
         <v>140265</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,13 +1926,13 @@
         <v>66196</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -1938,13 +1941,13 @@
         <v>27242</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -1953,19 +1956,19 @@
         <v>93438</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>17</v>
@@ -1974,13 +1977,13 @@
         <v>19389</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1989,13 +1992,13 @@
         <v>7503</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -2004,13 +2007,13 @@
         <v>26892</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2028,13 @@
         <v>270481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -2040,13 +2043,13 @@
         <v>130831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -2055,18 +2058,18 @@
         <v>401312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2078,13 +2081,13 @@
         <v>34615</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -2093,13 +2096,13 @@
         <v>27589</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2108,13 +2111,13 @@
         <v>62204</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2132,13 @@
         <v>64338</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -2144,13 +2147,13 @@
         <v>51300</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>108</v>
@@ -2159,13 +2162,13 @@
         <v>115638</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2183,13 @@
         <v>44631</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -2195,13 +2198,13 @@
         <v>13653</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -2210,19 +2213,19 @@
         <v>58284</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>31</v>
@@ -2231,13 +2234,13 @@
         <v>32120</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2246,13 +2249,13 @@
         <v>2024</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -2261,13 +2264,13 @@
         <v>34144</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2285,13 @@
         <v>175703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2297,13 +2300,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2312,18 +2315,18 @@
         <v>270270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2335,13 +2338,13 @@
         <v>61040</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2350,13 +2353,13 @@
         <v>41837</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -2365,13 +2368,13 @@
         <v>102877</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2389,13 @@
         <v>97833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -2401,13 +2404,13 @@
         <v>51449</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>149</v>
@@ -2416,13 +2419,13 @@
         <v>149282</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2440,13 @@
         <v>39140</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -2452,13 +2455,13 @@
         <v>31255</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -2467,19 +2470,19 @@
         <v>70395</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>25</v>
@@ -2488,13 +2491,13 @@
         <v>24636</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2503,13 +2506,13 @@
         <v>11544</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -2518,13 +2521,13 @@
         <v>36180</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2542,13 @@
         <v>222649</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2554,13 +2557,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -2569,18 +2572,18 @@
         <v>358734</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2595,13 @@
         <v>52729</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -2607,13 +2610,13 @@
         <v>37772</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -2622,13 +2625,13 @@
         <v>90501</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2646,13 @@
         <v>26842</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2658,13 +2661,13 @@
         <v>7631</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -2673,13 +2676,13 @@
         <v>34473</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2697,13 @@
         <v>20036</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2709,13 +2712,13 @@
         <v>3013</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2724,19 +2727,19 @@
         <v>23049</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>13</v>
@@ -2745,13 +2748,13 @@
         <v>12570</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2760,13 +2763,13 @@
         <v>2010</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -2775,13 +2778,13 @@
         <v>14580</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2799,13 @@
         <v>112177</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2811,13 +2814,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -2826,18 +2829,18 @@
         <v>162603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2852,13 @@
         <v>28813</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -2864,13 +2867,13 @@
         <v>15136</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -2879,13 +2882,13 @@
         <v>43949</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2903,13 @@
         <v>61422</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -2915,13 +2918,13 @@
         <v>50075</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -2930,13 +2933,13 @@
         <v>111497</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2954,13 @@
         <v>49901</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -2966,13 +2969,13 @@
         <v>13588</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -2981,19 +2984,19 @@
         <v>63490</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>14</v>
@@ -3002,13 +3005,13 @@
         <v>14861</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3017,13 +3020,13 @@
         <v>2049</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -3032,13 +3035,13 @@
         <v>16911</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3056,13 @@
         <v>154998</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>78</v>
@@ -3068,13 +3071,13 @@
         <v>80849</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>227</v>
@@ -3083,18 +3086,18 @@
         <v>235847</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3106,13 +3109,13 @@
         <v>67864</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>50</v>
@@ -3121,13 +3124,13 @@
         <v>53237</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>114</v>
@@ -3136,13 +3139,13 @@
         <v>121101</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3160,13 @@
         <v>131466</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>72</v>
@@ -3172,13 +3175,13 @@
         <v>79673</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>197</v>
@@ -3187,13 +3190,13 @@
         <v>211139</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3211,13 @@
         <v>78326</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -3223,13 +3226,13 @@
         <v>36436</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>109</v>
@@ -3238,19 +3241,19 @@
         <v>114762</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>50</v>
@@ -3259,13 +3262,13 @@
         <v>55437</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -3274,13 +3277,13 @@
         <v>10298</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M37" s="7">
         <v>61</v>
@@ -3289,13 +3292,13 @@
         <v>65736</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3313,13 @@
         <v>333092</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -3325,13 +3328,13 @@
         <v>179645</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>481</v>
@@ -3340,18 +3343,18 @@
         <v>512737</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3363,13 +3366,13 @@
         <v>188408</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H39" s="7">
         <v>120</v>
@@ -3378,13 +3381,13 @@
         <v>126946</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M39" s="7">
         <v>303</v>
@@ -3393,13 +3396,13 @@
         <v>315354</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3417,13 @@
         <v>99712</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>44</v>
@@ -3429,13 +3432,13 @@
         <v>45206</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M40" s="7">
         <v>143</v>
@@ -3444,13 +3447,13 @@
         <v>144918</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3468,13 @@
         <v>99184</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -3480,13 +3483,13 @@
         <v>36408</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M41" s="7">
         <v>131</v>
@@ -3495,19 +3498,19 @@
         <v>135591</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>72</v>
@@ -3516,13 +3519,13 @@
         <v>74122</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -3531,13 +3534,13 @@
         <v>28469</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="M42" s="7">
         <v>98</v>
@@ -3546,13 +3549,13 @@
         <v>102591</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3570,13 @@
         <v>461425</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>226</v>
@@ -3582,13 +3585,13 @@
         <v>237029</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>675</v>
@@ -3597,13 +3600,13 @@
         <v>698455</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3623,13 @@
         <v>556223</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H44" s="7">
         <v>381</v>
@@ -3635,13 +3638,13 @@
         <v>400208</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M44" s="7">
         <v>911</v>
@@ -3650,13 +3653,13 @@
         <v>956431</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3674,13 @@
         <v>644307</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H45" s="7">
         <v>344</v>
@@ -3686,13 +3689,13 @@
         <v>358408</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M45" s="7">
         <v>966</v>
@@ -3701,13 +3704,13 @@
         <v>1002715</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3725,13 @@
         <v>446868</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H46" s="7">
         <v>184</v>
@@ -3737,13 +3740,13 @@
         <v>192506</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="L46" s="7" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="M46" s="7">
         <v>613</v>
@@ -3752,19 +3755,19 @@
         <v>639374</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <v>234</v>
@@ -3773,13 +3776,13 @@
         <v>248527</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>68</v>
@@ -3788,13 +3791,13 @@
         <v>70294</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>302</v>
@@ -3803,13 +3806,13 @@
         <v>318821</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P47" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="Q47" s="7" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3827,13 @@
         <v>1895924</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>977</v>
@@ -3839,13 +3842,13 @@
         <v>1021416</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>2792</v>
@@ -3854,18 +3857,18 @@
         <v>2917341</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702D231B-18EF-4723-B849-F171FB0ABB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED66626F-2676-40F6-9B08-4D7AB52BBB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9DCFCD6-E2BC-468B-9E8E-FE44D27A3149}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4F7E4A04-E5B4-4B60-9EC9-0DDD57AF6A41}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CEA83B-9068-42E0-9FA3-527501291C0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2437EB1A-0DAC-41FD-8964-CFDB784BEE3F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
